--- a/src/main/java/br/gov/ba/pge/epa/api/scripts/gerador_scripts.xlsx
+++ b/src/main/java/br/gov/ba/pge/epa/api/scripts/gerador_scripts.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Núcleo" sheetId="4" r:id="rId1"/>
+    <sheet name="Tipo de Processo" sheetId="1" r:id="rId2"/>
+    <sheet name="Termo Geral" sheetId="2" r:id="rId3"/>
+    <sheet name="Termo Específico" sheetId="3" r:id="rId4"/>
+    <sheet name="Documento" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="251">
   <si>
     <t>PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS</t>
   </si>
@@ -211,13 +214,571 @@
   </si>
   <si>
     <t>PROCESSO SOBRE ORÇAMENTO PÚBLICO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TIPO DE PROCESSO</t>
+  </si>
+  <si>
+    <t>SCRIPT</t>
+  </si>
+  <si>
+    <t>NÚCLEO</t>
+  </si>
+  <si>
+    <t>TERMO GERAL</t>
+  </si>
+  <si>
+    <t>TERMO ESPECÍFICO</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>COMUNICADOS E INFORMES</t>
+  </si>
+  <si>
+    <t>PROCEDIMENTO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>INQUÉRITO CIVIL PÚBLICO</t>
+  </si>
+  <si>
+    <t>PROCEDIMENTO PRELIMINAR</t>
+  </si>
+  <si>
+    <t>ATO NORMATIVO/DOCUMENTO</t>
+  </si>
+  <si>
+    <t>PROCESSO ÉTICO</t>
+  </si>
+  <si>
+    <t>DECISÃO JUDICIAL</t>
+  </si>
+  <si>
+    <t>ILÍCITO</t>
+  </si>
+  <si>
+    <t>ILÍCITO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>ILÍCITO EM LICITAÇÃO/CONTRATOS</t>
+  </si>
+  <si>
+    <t>ILÍCITO EM PARCERIAS/CONVÊNIOS</t>
+  </si>
+  <si>
+    <t>ILÍCITO FUNCIONAL</t>
+  </si>
+  <si>
+    <t>INVESTIGAÇÃO PRELIMINAR</t>
+  </si>
+  <si>
+    <t>REPARAÇÃO DE DANOS - PRD</t>
+  </si>
+  <si>
+    <t>SINDICÂNCIA</t>
+  </si>
+  <si>
+    <t>ACORDO DE COOPERAÇÃO</t>
+  </si>
+  <si>
+    <t>CONTRATO DE GESTÃO</t>
+  </si>
+  <si>
+    <t>CONVÊNIO</t>
+  </si>
+  <si>
+    <t>TERMO DE ACORDO E COMPROMISSO</t>
+  </si>
+  <si>
+    <t>TERMO DE ACORDO E COMPROMISSO (TAC CULTURA)</t>
+  </si>
+  <si>
+    <t>TERMO DE COLABORAÇÃO</t>
+  </si>
+  <si>
+    <t>TERMO DE COOPERAÇÃO TÉCNICA</t>
+  </si>
+  <si>
+    <t>TERMO DE COOPERAÇÃO TÉCNICA E FINANCEIRA</t>
+  </si>
+  <si>
+    <t>TERMO DE FOMENTO</t>
+  </si>
+  <si>
+    <t>PARCERIAS</t>
+  </si>
+  <si>
+    <t>QUALIFICAÇÃO DE ENTIDADE</t>
+  </si>
+  <si>
+    <t>PRESTAÇÃO DE CONTAS</t>
+  </si>
+  <si>
+    <t>PLANSERV</t>
+  </si>
+  <si>
+    <t>CURSOS</t>
+  </si>
+  <si>
+    <t>CONCURSO PÚBLICO</t>
+  </si>
+  <si>
+    <t>PROCESSO SELETIVO SIMPLIFICADO - REDA</t>
+  </si>
+  <si>
+    <t>ESTÁGIO DE ESTUDANTES</t>
+  </si>
+  <si>
+    <t>CONSELHO ESTADUAL</t>
+  </si>
+  <si>
+    <t>PENSÃO ESPECIAL</t>
+  </si>
+  <si>
+    <t>ADICIONAL DE INSALUBRIDADE</t>
+  </si>
+  <si>
+    <t>ADICIONAL DE PERICULOSIDADE</t>
+  </si>
+  <si>
+    <t>ADICIONAL NOTURNO</t>
+  </si>
+  <si>
+    <t>ADICIONAL POR SERVIÇOS EXTRAORDINÁRIOS</t>
+  </si>
+  <si>
+    <t>ADICIONAL POR TEMPO DE SERVIÇO</t>
+  </si>
+  <si>
+    <t>AJUDA DE CUSTO</t>
+  </si>
+  <si>
+    <t>AUXÍLIO ALIMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>AUXÍLIO FUNERAL</t>
+  </si>
+  <si>
+    <t>AUXÍLIO MORADIA</t>
+  </si>
+  <si>
+    <t>AUXILIO NATALIDADE</t>
+  </si>
+  <si>
+    <t>AUXÍLIO RECLUSÃO</t>
+  </si>
+  <si>
+    <t>AUXÍLIO TRANSPORTE</t>
+  </si>
+  <si>
+    <t>SALÁRIO FAMÍLIA</t>
+  </si>
+  <si>
+    <t>DIÁRIAS</t>
+  </si>
+  <si>
+    <t>ADICIONAL DE DEDICAÇÃO EXCLUSIVA - GADE</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO ESPECIAL DE PRODUTIVIDADE - GPE-P</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO ESPECIAL DE DESEMPENHO - GPE-D</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO EPECIAL DE APOIO À PROCURADORIA</t>
+  </si>
+  <si>
+    <t>PRÊMIO ESPECIAL</t>
+  </si>
+  <si>
+    <t>PRÊMIO DE DESEMPENHO FAZENDÁRIO</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE APOIO AO DESENVOLVIMENTO FAZENDÁRIO - GDF</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE ATIVIDADE JURÍDICA - GAJ</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE ATIVIDADE POLICIAL JUDICIÁRIA - GAPJ</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE INCENTIVO À TITULAÇÃO - GIT</t>
+  </si>
+  <si>
+    <t>PRÊMIO POR DESEMPENHO POLICIAL - PDP</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE ATIVIDADE POLICIAL (GAP)</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE ATIPIDADE POLICIAL MILITAR - GAPM</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE HABILITAÇÃO POLICIAL MILITAR - GHPM</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE ESTÍMULO AO APERFEIÇOAMENTO PROFISSIONAL - GEAP</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE ESTÍMULO ÀS ATIVIDADES DE CLASSE</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE HABILITAÇÃO ESPECÍFICA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO POR AVANÇO HORIZONTAL</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE DIFÍCIL ACESSO</t>
+  </si>
+  <si>
+    <t>BOLSA DE ESTÍMULO À PERMANÊNCIA EM ATIVIDADE DE CLASSE</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO POR QUALIFICAÇÃO PROFISSIONAL TÉCNICA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇAÇÃO PELO EXERCÍCIO DE PRECEPTORIA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE INCENTIVO DE DESEMPENHO - GID</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE INFECTOLOGIA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE INTERIORIZAÇÃO</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO PELO EXERCÍCIO EM UNIDADE HOSPITALAR -GEUH</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO DE INCENTIVO PARA MELHORIA DA QUALIDADE DE ASSISTÊNCIA MÉDICA - GIQ</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO POR COMPETÊNCIA - GPC</t>
+  </si>
+  <si>
+    <t>SUBSTITUIÇÃO DE FUNÇÃO</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO ESPECIAL DE MOTORISTA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO ESPECIAL DE PRODUTIVIDADE - GEP</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO NATALINA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO PELA ATIVIDADE DE REGULAÇÃO DE SERVIÇOS PÚBLICOS -GARE</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO PELO EXERCÍCIO EM UNIDADE DO SISTEMA PRISIONAL-GEUSP</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO POR SERVIÇOS PENITENCIÁRIOS - GSP</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO PELO EXERCÍCIO FUNCIONAL EM REGIME DE TEMPO INTEGRAL E DEDICAÇÃO EXCLUSIVA (RTI)</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO POR CONDIÇÕES ESPECIAIS DE TRABALHO (CET)</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO POR JORNADA AMPLIADA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO POR SUBSTITUIÇÃO AUTOMÁTICA</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO PELA EXECUÇÃO DE SERVIÇOS DO PROGRAMA DE EDIFICAÇÕES PÚBLICAS DO ESTADO DA BAHIA - GEP</t>
+  </si>
+  <si>
+    <t>GRATIFICAÇÃO PELA EXECUÇÃO DE SERVIÇOS DO PROGRAMA DE TRANSPORTES - GET</t>
+  </si>
+  <si>
+    <t>ACUMULAÇÃO DE CARGO, EMPREGO OU FUNÇÃO PÚBLICA</t>
+  </si>
+  <si>
+    <t>ACUMULAÇÃO DE PROVENTOS EVENCIMENTOS</t>
+  </si>
+  <si>
+    <t>DISPOSIÇÃO/CESSÃO DE SERVIDOR PÚBLICO</t>
+  </si>
+  <si>
+    <t>DISPONIBILIDADE SINDICAL</t>
+  </si>
+  <si>
+    <t>ENQUADRAMENTO NA CARREIRA</t>
+  </si>
+  <si>
+    <t>ESTABILIDADE ECONÔMICA</t>
+  </si>
+  <si>
+    <t>FÉRIAS</t>
+  </si>
+  <si>
+    <t>LICENÇA POR MOTIVO DE DOENÇA EM PESSOA DA FAMÍLIA</t>
+  </si>
+  <si>
+    <t>LICENÇA POR MOTIVO DE AFASTAMENTO DO CÔNJUGE OU COMPANHEIRO</t>
+  </si>
+  <si>
+    <t>LICENÇA PARA PRESTAR O SERVIÇO MILITAR OBRIGATÓRIO</t>
+  </si>
+  <si>
+    <t>LICENÇA PARA CONCORRER A MANDATO ELETIVO E EXERCÉ-LO</t>
+  </si>
+  <si>
+    <t>LICENÇA PRÊMIO POR ASSIDUIDADE</t>
+  </si>
+  <si>
+    <t>LICENÇA PARA TRATAR DE INTERESSE PARTICULAR</t>
+  </si>
+  <si>
+    <t>LICENÇA PARA O SERVIDOR ATLETA PARTICIPAR DE COMPETIÇÃO OFICIAL</t>
+  </si>
+  <si>
+    <t>LICENÇA PARA TRATAMENTO DE SAÚDE</t>
+  </si>
+  <si>
+    <t>LICENÇA À GESTANTE</t>
+  </si>
+  <si>
+    <t>LICENÇA À ADOTANTE</t>
+  </si>
+  <si>
+    <t>LICENÇA PATERNIDADE</t>
+  </si>
+  <si>
+    <t>LICENÇA POR ACIDENTE EM SERVIÇO</t>
+  </si>
+  <si>
+    <t>LICENÇA MATERNIDADE</t>
+  </si>
+  <si>
+    <t>LICENÇA PARA PARTICIPAR DE MISSÃO OU ESTUDOS NO EXTERIOR</t>
+  </si>
+  <si>
+    <t>PROGRESSÃO CARREIRA</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO NA CARREIRA DA POLÍCIA MILITAR E DO CORPO DE BOMBEIROS MILITAR</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO NA CARREIRA POLICIAL CIVIL</t>
+  </si>
+  <si>
+    <t>PROMOÇÃO NAS CARREIRA DOS DEMAIS SERVIDORES PÚBLICOS CIVIS</t>
+  </si>
+  <si>
+    <t>READAPTAÇÃO FUNCIONAL</t>
+  </si>
+  <si>
+    <t>RECONDUÇÃO</t>
+  </si>
+  <si>
+    <t>REINTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>RELOTAÇÃO</t>
+  </si>
+  <si>
+    <t>REMOÇÃO</t>
+  </si>
+  <si>
+    <t>TEMPO DE SERVIÇO</t>
+  </si>
+  <si>
+    <t>CONTRIBUIÇÃO SINDICAL</t>
+  </si>
+  <si>
+    <t>MODELO 1</t>
+  </si>
+  <si>
+    <t>CONTENCIOSO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>ABONO DE PERMANÊNCIA</t>
+  </si>
+  <si>
+    <t>APOSENTADORIA COMPULSÓRIA</t>
+  </si>
+  <si>
+    <t>APOSENTADORIA ESPECIAL</t>
+  </si>
+  <si>
+    <t>APOSENTADORIA POR INVALIDEZ</t>
+  </si>
+  <si>
+    <t>APOSENTADORIA VOLUNTÁRIA</t>
+  </si>
+  <si>
+    <t>PENSÃO POR MORTE</t>
+  </si>
+  <si>
+    <t>REFORMA</t>
+  </si>
+  <si>
+    <t>REPARAÇÃO DE DANOS</t>
+  </si>
+  <si>
+    <t>RESERVA REMUNERADA</t>
+  </si>
+  <si>
+    <t>REPRESENTAÇÃO PROVENIENTE DO MP-CONTAS</t>
+  </si>
+  <si>
+    <t>APOSENTADORIA</t>
+  </si>
+  <si>
+    <t>RESERVA/REFORMA</t>
+  </si>
+  <si>
+    <t>CONSULTA PROVENIENTE DO TCE</t>
+  </si>
+  <si>
+    <t>CONTRATO DE ADMISSÃO DE PESSOAL - REDA</t>
+  </si>
+  <si>
+    <t>CONTRATOS</t>
+  </si>
+  <si>
+    <t>DENÚNCIA PROVENIENTE DO TCE</t>
+  </si>
+  <si>
+    <t>EMBARGOS DE DECLARAÇÃO</t>
+  </si>
+  <si>
+    <t>LICITAÇÕES</t>
+  </si>
+  <si>
+    <t>MEDIDA CAUTELAR</t>
+  </si>
+  <si>
+    <t>RECLAMAÇÃO CONTRA ATO DE AUTORIDADE ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>RECURSO DE APELAÇÃO</t>
+  </si>
+  <si>
+    <t>RECURSO DE RESCISÃO DO JULGADO</t>
+  </si>
+  <si>
+    <t>RECURSO DE REVISÃO</t>
+  </si>
+  <si>
+    <t>AUDITORIA DE CONTAS</t>
+  </si>
+  <si>
+    <t>INSPEÇÃO</t>
+  </si>
+  <si>
+    <t>TOMADA DE CONTAS</t>
+  </si>
+  <si>
+    <t>ALTERAÇÃO CONTRATUAL</t>
+  </si>
+  <si>
+    <t>ALTERAÇÃO DE PRAZO CONTRATUAL</t>
+  </si>
+  <si>
+    <t>ALTERAÇÃO QUALITATIVA DE CONTRATO</t>
+  </si>
+  <si>
+    <t>ALTERAÇÃO QUANTITATIVA DE CONTRATO</t>
+  </si>
+  <si>
+    <t>BEM DE TERCEIROS</t>
+  </si>
+  <si>
+    <t>CONCORRÊNCIA</t>
+  </si>
+  <si>
+    <t>CONCURSO</t>
+  </si>
+  <si>
+    <t>CONVITE</t>
+  </si>
+  <si>
+    <t>CREDENCIAMENTO</t>
+  </si>
+  <si>
+    <t>DISPENSA DE LICITAÇÃO</t>
+  </si>
+  <si>
+    <t>EMPRÉSTIMO INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>INEXIGIBILIDADE DE LICITAÇÃO</t>
+  </si>
+  <si>
+    <t>LICITAÇÃO</t>
+  </si>
+  <si>
+    <t>PREGÃO ELETRÔNICO</t>
+  </si>
+  <si>
+    <t>PREGÃO PRESENCIAL</t>
+  </si>
+  <si>
+    <t>REGISTRO DE PREÇOS</t>
+  </si>
+  <si>
+    <t>RESCISÃO CONTRATUAL</t>
+  </si>
+  <si>
+    <t>RESSARCIMENTO</t>
+  </si>
+  <si>
+    <t>REVISÃO CONTRATUAL</t>
+  </si>
+  <si>
+    <t>TOMADA DE PREÇOS</t>
+  </si>
+  <si>
+    <t>USO DE BEM DE TERCEIROS</t>
+  </si>
+  <si>
+    <t>REAJUSTE CONTRATUAL</t>
+  </si>
+  <si>
+    <t>BEM DE TERCEIROS - IMÓVEL</t>
+  </si>
+  <si>
+    <t>BEM DE TERCEIROS - MÓVEL</t>
+  </si>
+  <si>
+    <t>BEM PÚBLICO - IMÓVEL</t>
+  </si>
+  <si>
+    <t>BEM PÚBLICO - MÓVEL</t>
+  </si>
+  <si>
+    <t>TERRAS DEVOLUTAS ESTADUAIS</t>
+  </si>
+  <si>
+    <t>COMPENSAÇÃO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>LICENCIAMENTO AMBIENTAL</t>
+  </si>
+  <si>
+    <t>ORÇAMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +794,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,15 +928,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -361,9 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,6 +947,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,6 +963,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,1484 +1304,5921 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="100.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="15">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="str">
-        <f>CONCATENATE("(",A1,",'",B1,"'),")</f>
+      <c r="C2" s="14" t="str">
+        <f>CONCATENATE("(",A2,",'",B2,"'),")</f>
         <v>(1,'PROCESSO ADMINISTRATIVO DISCIPLINAR - PAD'),</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="15">
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="str">
-        <f t="shared" ref="C2:C65" si="0">CONCATENATE("(",A2,",'",B2,"'),")</f>
+      <c r="C3" s="14" t="str">
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE("(",A3,",'",B3,"'),")</f>
         <v>(2,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="15">
+      <c r="D3" s="24"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(3,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="15">
+      <c r="D4" s="24"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(4,'PROCESSO DE DENÚNCIA DE ILÍCITO'),</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15">
+      <c r="D5" s="24"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(5,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15">
+      <c r="D6" s="24"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(6,'PROCESSO DE INVESTIGAÇÃO PRELIMINAR'),</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15">
+      <c r="D7" s="24"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(7,'PROCESSO DE REPARAÇÃO DE DANOS - PRD'),</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15">
+      <c r="D8" s="24"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(8,'PROCESSO DE SINDICÂNCIA'),</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15">
+      <c r="D9" s="24"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(9,'PROCESSO DE TOMADA DE CONTAS ESPECIAL'),</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15">
+      <c r="D10" s="24"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(10,'PROCESSO DISCIPLINAR SUMÁRIO - PDS'),</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15">
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(11,'PROCESSO SANCIONATÓRIO'),</v>
       </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(12,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(13,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(14,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
+      </c>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(15,'PROCESSO DE PARCERIAS'),</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,'PROCESSO DE PARCERIAS'),</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>(16,'PROCESSO DE QUALIFICAÇÃO DE ENTIDADE'),</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="15">
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(17,'PROCESSO DE CÔMPUTO DE TEMPO DE SERVIÇO'),</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="15">
+    <row r="19" spans="1:4">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(18,'PROCESSO DE CONTRIBUIÇÃO SINDICAL'),</v>
       </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="15">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(19,'PROCESSO DE DISPONIBILIDADE SINDICAL'),</v>
       </c>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="15">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(20,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO'),</v>
       </c>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="15">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(21,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
       </c>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="15">
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(22,'PROCESSO DE ENQUADRAMENTO NA CARREIRA'),</v>
       </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="15">
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(23,'PROCESSO DE FÉRIAS'),</v>
       </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="15">
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(24,'PROCESSO DE LICENÇAS FUNCIONAIS'),</v>
       </c>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="15">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(25,'PROCESSO DE MOVIMENTAÇÃO FUNCIONAL'),</v>
       </c>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="15">
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(26,'PROCESSO DE ORGANIZAÇÃO ADMINISTRATIVA'),</v>
       </c>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="15">
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(27,'PROCESSO DE PENSÃO'),</v>
       </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="15">
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(28,'PROCESSO DE PROGRESSÃO NA CARREIRA'),</v>
       </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="15">
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(29,'PROCESSO DE PROMOÇÃO'),</v>
       </c>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="15">
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(30,'PROCESSO DO SISTEMA DE  ASSISTÊNCIA À SAÚDE'),</v>
       </c>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="15">
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(31,'PROCESSO SELETIVO DE RECRUTAMENTO DE PESSOAL'),</v>
       </c>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(32,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(33,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(34,'PROCESSO DE ABONO DE PERMANÊNCIA'),</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
+      </c>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(35,'PROCESSO DE APOSENTADORIA'),</v>
-      </c>
-      <c r="D35" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="C35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,'PROCESSO DE ABONO DE PERMANÊNCIA'),</v>
+      </c>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(36,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="C36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,'PROCESSO DE APOSENTADORIA'),</v>
+      </c>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(37,'PROCESSO DE PENSÃO'),</v>
-      </c>
-      <c r="D37" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(38,'PROCESSO DE REFORMA'),</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="C38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,'PROCESSO DE PENSÃO'),</v>
+      </c>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(39,'PROCESSO DE REPARAÇÃO DE DANOS'),</v>
-      </c>
-      <c r="D39" s="10"/>
+      <c r="C39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,'PROCESSO DE REFORMA'),</v>
+      </c>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,'PROCESSO DE REPARAÇÃO DE DANOS'),</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="20" t="str">
+      <c r="C41" s="16" t="str">
         <f t="shared" si="0"/>
         <v>(40,'PROCESSO DE RESERVA REMUNERADA'),</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="15">
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B42" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="17" t="str">
+      <c r="C42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(41,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="15">
+    <row r="43" spans="1:4">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="17" t="str">
+      <c r="C43" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(42,'PROCESSO ADMINISTRATIVO ORIUNDO DO TCE'),</v>
       </c>
-      <c r="D42" s="23"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="15">
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B44" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="17" t="str">
+      <c r="C44" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(43,'PROCESSO DE AUDITORIA'),</v>
       </c>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="15">
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B45" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="17" t="str">
+      <c r="C45" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(44,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
       </c>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="15">
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B46" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="17" t="str">
+      <c r="C46" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(45,'PROCESSO DE INSPEÇÃO'),</v>
       </c>
-      <c r="D45" s="23"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="15">
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B47" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="17" t="str">
+      <c r="C47" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(46,'PROCESSO DE PRESTAÇÃO DE CONTAS'),</v>
       </c>
-      <c r="D46" s="23"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="15">
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="17" t="str">
+      <c r="C48" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(47,'PROCESSO DE REPARAÇÃO DE DANOS - PRD'),</v>
       </c>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="15">
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B49" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="17" t="str">
+      <c r="C49" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(48,'PROCESSO DE TOMADA DE CONTAS'),</v>
       </c>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3">
-        <v>49</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(49,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(50,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
-      </c>
-      <c r="D50" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(49,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(51,'PROCESSO DE ALTERAÇÃO CONTRATUAL'),</v>
-      </c>
-      <c r="D51" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(50,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
+      </c>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(52,'PROCESSO DE BEM DE TERCEIROS'),</v>
-      </c>
-      <c r="D52" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C52" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(51,'PROCESSO DE ALTERAÇÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(53,'PROCESSO DE CREDENCIAMENTO'),</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="C53" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(52,'PROCESSO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(54,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
-      </c>
-      <c r="D54" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="C54" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(53,'PROCESSO DE CREDENCIAMENTO'),</v>
+      </c>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>(55,'PROCESSO DE LICITAÇÃO'),</v>
-      </c>
-      <c r="D55" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(54,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>(55,'PROCESSO DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="20" t="str">
+      <c r="C57" s="16" t="str">
         <f t="shared" si="0"/>
         <v>(56,'PROCESSO DE USO DE BEM DE TERCEIROS'),</v>
       </c>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="15">
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B58" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="17" t="str">
+      <c r="C58" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(57,'PROCESSO ADMINISTRATIVO ORIUNDO DA SESAB'),</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="15">
+    <row r="59" spans="1:4">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B59" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="17" t="str">
+      <c r="C59" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(58,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
       </c>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="15">
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B60" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="17" t="str">
+      <c r="C60" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(59,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
       </c>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="15">
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="17" t="str">
+      <c r="C61" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(60,'PROCESSO DE ALTERAÇÃO CONTRATUAL'),</v>
       </c>
-      <c r="D60" s="23"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="15">
+      <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="17" t="str">
+      <c r="C62" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(61,'PROCESSO DE BEM DE TERCEIROS'),</v>
       </c>
-      <c r="D61" s="23"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="15">
+      <c r="D62" s="22"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="17" t="str">
+      <c r="C63" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(62,'PROCESSO DE CREDENCIAMENTO'),</v>
       </c>
-      <c r="D62" s="23"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="15">
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="17" t="str">
+      <c r="C64" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(63,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
       </c>
-      <c r="D63" s="23"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="15">
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="17" t="str">
+      <c r="C65" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(64,'PROCESSO DE LICITAÇÃO'),</v>
       </c>
-      <c r="D64" s="23"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="15">
+      <c r="D65" s="22"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="17" t="str">
+      <c r="C66" s="14" t="str">
         <f t="shared" si="0"/>
         <v>(65,'PROCESSO DE PARCERIAS'),</v>
       </c>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="15">
+      <c r="D66" s="22"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="17" t="str">
-        <f t="shared" ref="C66:C103" si="1">CONCATENATE("(",A66,",'",B66,"'),")</f>
+      <c r="C67" s="14" t="str">
+        <f t="shared" ref="C67:C104" si="1">CONCATENATE("(",A67,",'",B67,"'),")</f>
         <v>(66,'PROCESSO DE USO DE BEM DE TERCEIROS'),</v>
       </c>
-      <c r="D66" s="24"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="19">
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="15">
         <v>67</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="20" t="str">
+      <c r="C68" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(67,'PROCESSO ADMINISTRATIVO ORIUNDO DA SEC'),</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D68" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="19">
+    <row r="69" spans="1:4">
+      <c r="A69" s="15">
         <v>68</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="20" t="str">
+      <c r="C69" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(68,'PROCESSO ADMINISTRATIVO ORIUNDO DA SEPROMI'),</v>
       </c>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="19">
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="15">
         <v>69</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="20" t="str">
+      <c r="C70" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(69,'PROCESSO ADMINISTRATIVO ORIUNDO DA SJDHDS'),</v>
       </c>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="19">
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="15">
         <v>70</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="20" t="str">
+      <c r="C71" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(70,'PROCESSO ADMINISTRATIVO ORIUNDO DA SPM'),</v>
       </c>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="19">
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="15">
         <v>71</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="20" t="str">
+      <c r="C72" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(71,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
       </c>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="19">
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="15">
         <v>72</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="20" t="str">
+      <c r="C73" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(72,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
       </c>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="19">
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="20" t="str">
+      <c r="C74" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(73,'PROCESSO DE ALTERAÇÃO CONTRATUAL'),</v>
       </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="19">
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="15">
         <v>74</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C74" s="20" t="str">
+      <c r="C75" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(74,'PROCESSO DE BEM DE TERCEIROS'),</v>
       </c>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="19">
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="20" t="str">
+      <c r="C76" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(75,'PROCESSO DE CREDENCIAMENTO'),</v>
       </c>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="19">
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="15">
         <v>76</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="20" t="str">
+      <c r="C77" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(76,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
       </c>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="19">
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="15">
         <v>77</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="20" t="str">
+      <c r="C78" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(77,'PROCESSO DE LICITAÇÃO'),</v>
       </c>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="19">
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="15">
         <v>78</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="20" t="str">
+      <c r="C79" s="16" t="str">
         <f t="shared" si="1"/>
         <v>(78,'PROCESSO DE PARCERIAS'),</v>
       </c>
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="19">
-        <v>79</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>(79,'PROCESSO DE USO DE BEM DE TERCEIROS'),</v>
-      </c>
-      <c r="D79" s="11"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="15">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>(79,'PROCESSO DE USO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D80" s="20"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="17" t="str">
+      <c r="C81" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(80,'PROCESSO ADMINISTRATIVO ORIUNDO DA SSP'),</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D81" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="15">
+    <row r="82" spans="1:4">
+      <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B82" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="17" t="str">
+      <c r="C82" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(81,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
       </c>
-      <c r="D81" s="23"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="15">
+      <c r="D82" s="22"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B83" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="17" t="str">
+      <c r="C83" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(82,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
       </c>
-      <c r="D82" s="23"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="15">
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B84" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="17" t="str">
+      <c r="C84" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(83,'PROCESSO DE ALTERAÇÃO CONTRATUAL'),</v>
       </c>
-      <c r="D83" s="23"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="15">
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B85" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="17" t="str">
+      <c r="C85" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(84,'PROCESSO DE BEM DE TERCEIROS'),</v>
       </c>
-      <c r="D84" s="23"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="15">
+      <c r="D85" s="22"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B86" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="17" t="str">
+      <c r="C86" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(85,'PROCESSO DE CREDENCIAMENTO'),</v>
       </c>
-      <c r="D85" s="23"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="15">
+      <c r="D86" s="22"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B87" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="17" t="str">
+      <c r="C87" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(86,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
       </c>
-      <c r="D86" s="23"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="15">
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B88" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C87" s="17" t="str">
+      <c r="C88" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(87,'PROCESSO DE LICITAÇÃO'),</v>
       </c>
-      <c r="D87" s="23"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="15">
+      <c r="D88" s="22"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B89" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="17" t="str">
+      <c r="C89" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(88,'PROCESSO DE PARCERIAS'),</v>
       </c>
-      <c r="D88" s="23"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="15">
+      <c r="D89" s="22"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B90" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="17" t="str">
+      <c r="C90" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(89,'PROCESSO DE QUALIFICAÇÃO DE ENTIDADE'),</v>
       </c>
-      <c r="D89" s="23"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="15">
+      <c r="D90" s="22"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B91" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="17" t="str">
+      <c r="C91" s="14" t="str">
         <f t="shared" si="1"/>
         <v>(90,'PROCESSO DE USO DE BEM DE TERCEIROS'),</v>
       </c>
-      <c r="D90" s="24"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="3">
-        <v>91</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>(91,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(92,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
-      </c>
-      <c r="D92" s="10"/>
+        <v>(91,'PROCESSO ADMINISTRATIVO ORIUNDO DE OUTROS ÓRGÃOS'),</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(93,'PROCESSO DE BEM DE TERCEIROS'),</v>
-      </c>
-      <c r="D93" s="10"/>
+        <v>(92,'PROCESSO ADMINISTRATIVO ORIUNDO DO MP'),</v>
+      </c>
+      <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(94,'PROCESSO DE BEM PÚBLICO'),</v>
-      </c>
-      <c r="D94" s="10"/>
+        <v>(93,'PROCESSO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="3">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(95,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
-      </c>
-      <c r="D95" s="10"/>
+        <v>(94,'PROCESSO DE BEM PÚBLICO'),</v>
+      </c>
+      <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(96,'PROCESSO DE REGULARIÇÃO FUNDIÁRIA'),</v>
-      </c>
-      <c r="D96" s="10"/>
+        <v>(95,'PROCESSO DE ELABORAÇÃO/REVISÃO DE ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D96" s="19"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(97,'PROCESSO DE REGULARIÇÃO TERRITORIAL'),</v>
-      </c>
-      <c r="D97" s="10"/>
+        <v>(96,'PROCESSO DE REGULARIÇÃO FUNDIÁRIA'),</v>
+      </c>
+      <c r="D97" s="19"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(98,'PROCESSO DE REGULARIZAÇÃO FUNDIÁRIA'),</v>
-      </c>
-      <c r="D98" s="10"/>
+        <v>(97,'PROCESSO DE REGULARIÇÃO TERRITORIAL'),</v>
+      </c>
+      <c r="D98" s="19"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(99,'PROCESSO DE REPARAÇÃO DE DANOS - PRD'),</v>
-      </c>
-      <c r="D99" s="10"/>
+        <v>(98,'PROCESSO DE REGULARIZAÇÃO FUNDIÁRIA'),</v>
+      </c>
+      <c r="D99" s="19"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(100,'PROCESSO DE USO DE BEM DE TERCEIROS'),</v>
-      </c>
-      <c r="D100" s="10"/>
+        <v>(99,'PROCESSO DE REPARAÇÃO DE DANOS - PRD'),</v>
+      </c>
+      <c r="D100" s="19"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C101" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(101,'PROCESSO DE USO DE BEM PÚBLICO'),</v>
-      </c>
-      <c r="D101" s="10"/>
+        <v>(100,'PROCESSO DE USO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D101" s="19"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C102" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>(102,'PROCESSO SOBRE MEIO AMBIENTE'),</v>
-      </c>
-      <c r="D102" s="10"/>
+        <v>(101,'PROCESSO DE USO DE BEM PÚBLICO'),</v>
+      </c>
+      <c r="D102" s="19"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>(102,'PROCESSO SOBRE MEIO AMBIENTE'),</v>
+      </c>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C103" s="5" t="str">
+      <c r="C104" s="5" t="str">
         <f t="shared" si="1"/>
         <v>(103,'PROCESSO SOBRE ORÇAMENTO PÚBLICO'),</v>
       </c>
-      <c r="D103" s="11"/>
+      <c r="D104" s="20"/>
     </row>
   </sheetData>
   <sortState ref="F1:F9">
     <sortCondition ref="F1:F9"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="D49:D56"/>
-    <mergeCell ref="D57:D66"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="D80:D90"/>
-    <mergeCell ref="D91:D103"/>
-    <mergeCell ref="D1:D11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D31"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="D68:D80"/>
+    <mergeCell ref="D81:D91"/>
+    <mergeCell ref="D92:D104"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:D326"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="25" customWidth="1"/>
+    <col min="2" max="3" width="100.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="27" t="str">
+        <f>CONCATENATE("(",A2,",'",B2,"'),")</f>
+        <v>(1,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="27" t="str">
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE("(",A3,",'",B3,"'),")</f>
+        <v>(2,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'DECISÃO JUDICIAL'),</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'ILÍCITO'),</v>
+      </c>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'ILÍCITO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'ILÍCITO EM LICITAÇÃO/CONTRATOS'),</v>
+      </c>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'ILÍCITO EM PARCERIAS/CONVÊNIOS'),</v>
+      </c>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'ILÍCITO FUNCIONAL'),</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'INVESTIGAÇÃO PRELIMINAR'),</v>
+      </c>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,'PROCESSO ADMINISTRATIVO DISCIPLINAR - PAD'),</v>
+      </c>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,'PROCESSO DISCIPLINAR SUMÁRIO - PDS'),</v>
+      </c>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,'PROCESSO ÉTICO'),</v>
+      </c>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,'PROCESSO SANCIONATÓRIO'),</v>
+      </c>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,'REPARAÇÃO DE DANOS - PRD'),</v>
+      </c>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,'SINDICÂNCIA'),</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,'ACORDO DE COOPERAÇÃO'),</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="32">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="32">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="32">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,'CONTRATO DE GESTÃO'),</v>
+      </c>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="32">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,'CONVÊNIO'),</v>
+      </c>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="32">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="32">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,'PARCERIAS'),</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="32">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,'PRESTAÇÃO DE CONTAS'),</v>
+      </c>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="32">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="32">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="32">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,'QUALIFICAÇÃO DE ENTIDADE'),</v>
+      </c>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="32">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,'TERMO DE ACORDO E COMPROMISSO'),</v>
+      </c>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(31,'TERMO DE ACORDO E COMPROMISSO (TAC CULTURA)'),</v>
+      </c>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="32">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,'TERMO DE COLABORAÇÃO'),</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="32">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,'TERMO DE COOPERAÇÃO TÉCNICA'),</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="32">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,'TERMO DE COOPERAÇÃO TÉCNICA E FINANCEIRA'),</v>
+      </c>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="32">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,'TERMO DE FOMENTO'),</v>
+      </c>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,'ACUMULAÇÃO DE CARGO, EMPREGO OU FUNÇÃO PÚBLICA'),</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,'ACUMULAÇÃO DE PROVENTOS EVENCIMENTOS'),</v>
+      </c>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,'ADICIONAL DE DEDICAÇÃO EXCLUSIVA - GADE'),</v>
+      </c>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,'ADICIONAL DE INSALUBRIDADE'),</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,'ADICIONAL DE PERICULOSIDADE'),</v>
+      </c>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(41,'ADICIONAL NOTURNO'),</v>
+      </c>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(42,'ADICIONAL POR SERVIÇOS EXTRAORDINÁRIOS'),</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(43,'ADICIONAL POR TEMPO DE SERVIÇO'),</v>
+      </c>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(44,'AJUDA DE CUSTO'),</v>
+      </c>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(45,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="28">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(46,'AUXÍLIO ALIMENTAÇÃO'),</v>
+      </c>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="28">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(47,'AUXÍLIO FUNERAL'),</v>
+      </c>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="28">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(48,'AUXÍLIO MORADIA'),</v>
+      </c>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="28">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(49,'AUXILIO NATALIDADE'),</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="28">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(50,'AUXÍLIO RECLUSÃO'),</v>
+      </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="28">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(51,'AUXÍLIO TRANSPORTE'),</v>
+      </c>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="28">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(52,'BOLSA DE ESTÍMULO À PERMANÊNCIA EM ATIVIDADE DE CLASSE'),</v>
+      </c>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="28">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(53,'CONCURSO PÚBLICO'),</v>
+      </c>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="28">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(54,'CONSELHO ESTADUAL'),</v>
+      </c>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="28">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(55,'CONTRIBUIÇÃO SINDICAL'),</v>
+      </c>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="28">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(56,'CURSOS'),</v>
+      </c>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="28">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(57,'DIÁRIAS'),</v>
+      </c>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="28">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(58,'DISPONIBILIDADE SINDICAL'),</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="28">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(59,'DISPOSIÇÃO/CESSÃO DE SERVIDOR PÚBLICO'),</v>
+      </c>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="28">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60,'ENQUADRAMENTO NA CARREIRA'),</v>
+      </c>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="28">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(61,'ESTABILIDADE ECONÔMICA'),</v>
+      </c>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="28">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(62,'ESTÁGIO DE ESTUDANTES'),</v>
+      </c>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="28">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(63,'FÉRIAS'),</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="28">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(64,'GRATIFICAÇAÇÃO PELO EXERCÍCIO DE PRECEPTORIA'),</v>
+      </c>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="28">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(65,'GRATIFICAÇÃO DE APOIO AO DESENVOLVIMENTO FAZENDÁRIO - GDF'),</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="28">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f t="shared" ref="C67:C130" si="1">CONCATENATE("(",A67,",'",B67,"'),")</f>
+        <v>(66,'GRATIFICAÇÃO DE ATIPIDADE POLICIAL MILITAR - GAPM'),</v>
+      </c>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="28">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(67,'GRATIFICAÇÃO DE ATIVIDADE JURÍDICA - GAJ'),</v>
+      </c>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="28">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(68,'GRATIFICAÇÃO DE ATIVIDADE POLICIAL (GAP)'),</v>
+      </c>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="28">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(69,'GRATIFICAÇÃO DE ATIVIDADE POLICIAL JUDICIÁRIA - GAPJ'),</v>
+      </c>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="28">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70,'GRATIFICAÇÃO DE DIFÍCIL ACESSO'),</v>
+      </c>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="28">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(71,'GRATIFICAÇÃO DE ESTÍMULO AO APERFEIÇOAMENTO PROFISSIONAL - GEAP'),</v>
+      </c>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="28">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(72,'GRATIFICAÇÃO DE ESTÍMULO ÀS ATIVIDADES DE CLASSE'),</v>
+      </c>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="28">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(73,'GRATIFICAÇÃO DE HABILITAÇÃO ESPECÍFICA'),</v>
+      </c>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="28">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(74,'GRATIFICAÇÃO DE HABILITAÇÃO POLICIAL MILITAR - GHPM'),</v>
+      </c>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="28">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(75,'GRATIFICAÇÃO DE INCENTIVO À TITULAÇÃO - GIT'),</v>
+      </c>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="28">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(76,'GRATIFICAÇÃO DE INCENTIVO DE DESEMPENHO - GID'),</v>
+      </c>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="28">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(77,'GRATIFICAÇÃO DE INCENTIVO PARA MELHORIA DA QUALIDADE DE ASSISTÊNCIA MÉDICA - GIQ'),</v>
+      </c>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="28">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(78,'GRATIFICAÇÃO DE INFECTOLOGIA'),</v>
+      </c>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="28">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(79,'GRATIFICAÇÃO DE INTERIORIZAÇÃO'),</v>
+      </c>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="28">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(80,'GRATIFICAÇÃO EPECIAL DE APOIO À PROCURADORIA'),</v>
+      </c>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="28">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(81,'GRATIFICAÇÃO ESPECIAL DE DESEMPENHO - GPE-D'),</v>
+      </c>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="28">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(82,'GRATIFICAÇÃO ESPECIAL DE MOTORISTA'),</v>
+      </c>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="28">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(83,'GRATIFICAÇÃO ESPECIAL DE PRODUTIVIDADE - GEP'),</v>
+      </c>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="28">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(84,'GRATIFICAÇÃO ESPECIAL DE PRODUTIVIDADE - GPE-P'),</v>
+      </c>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="28">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(85,'GRATIFICAÇÃO NATALINA'),</v>
+      </c>
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="28">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(86,'GRATIFICAÇÃO PELA ATIVIDADE DE REGULAÇÃO DE SERVIÇOS PÚBLICOS -GARE'),</v>
+      </c>
+      <c r="D87" s="19"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="28">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87,'GRATIFICAÇÃO PELA EXECUÇÃO DE SERVIÇOS DO PROGRAMA DE EDIFICAÇÕES PÚBLICAS DO ESTADO DA BAHIA - GEP'),</v>
+      </c>
+      <c r="D88" s="19"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="28">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(88,'GRATIFICAÇÃO PELA EXECUÇÃO DE SERVIÇOS DO PROGRAMA DE TRANSPORTES - GET'),</v>
+      </c>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="28">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(89,'GRATIFICAÇÃO PELO EXERCÍCIO EM UNIDADE DO SISTEMA PRISIONAL-GEUSP'),</v>
+      </c>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="28">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(90,'GRATIFICAÇÃO PELO EXERCÍCIO EM UNIDADE HOSPITALAR -GEUH'),</v>
+      </c>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="28">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(91,'GRATIFICAÇÃO PELO EXERCÍCIO FUNCIONAL EM REGIME DE TEMPO INTEGRAL E DEDICAÇÃO EXCLUSIVA (RTI)'),</v>
+      </c>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="28">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(92,'GRATIFICAÇÃO POR AVANÇO HORIZONTAL'),</v>
+      </c>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="28">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(93,'GRATIFICAÇÃO POR COMPETÊNCIA - GPC'),</v>
+      </c>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="28">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(94,'GRATIFICAÇÃO POR CONDIÇÕES ESPECIAIS DE TRABALHO (CET)'),</v>
+      </c>
+      <c r="D95" s="19"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="28">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(95,'GRATIFICAÇÃO POR JORNADA AMPLIADA'),</v>
+      </c>
+      <c r="D96" s="19"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="28">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(96,'GRATIFICAÇÃO POR QUALIFICAÇÃO PROFISSIONAL TÉCNICA'),</v>
+      </c>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="28">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(97,'GRATIFICAÇÃO POR SERVIÇOS PENITENCIÁRIOS - GSP'),</v>
+      </c>
+      <c r="D98" s="19"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="28">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(98,'GRATIFICAÇÃO POR SUBSTITUIÇÃO AUTOMÁTICA'),</v>
+      </c>
+      <c r="D99" s="19"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="28">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(99,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D100" s="19"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="28">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(100,'LICENÇA À ADOTANTE'),</v>
+      </c>
+      <c r="D101" s="19"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="28">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(101,'LICENÇA À GESTANTE'),</v>
+      </c>
+      <c r="D102" s="19"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="28">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(102,'LICENÇA MATERNIDADE'),</v>
+      </c>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="28">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(103,'LICENÇA PARA CONCORRER A MANDATO ELETIVO E EXERCÉ-LO'),</v>
+      </c>
+      <c r="D104" s="19"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="28">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(104,'LICENÇA PARA O SERVIDOR ATLETA PARTICIPAR DE COMPETIÇÃO OFICIAL'),</v>
+      </c>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="28">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(105,'LICENÇA PARA PARTICIPAR DE MISSÃO OU ESTUDOS NO EXTERIOR'),</v>
+      </c>
+      <c r="D106" s="19"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="28">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(106,'LICENÇA PARA PRESTAR O SERVIÇO MILITAR OBRIGATÓRIO'),</v>
+      </c>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="28">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(107,'LICENÇA PARA TRATAMENTO DE SAÚDE'),</v>
+      </c>
+      <c r="D108" s="19"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="28">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(108,'LICENÇA PARA TRATAR DE INTERESSE PARTICULAR'),</v>
+      </c>
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="28">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(109,'LICENÇA PATERNIDADE'),</v>
+      </c>
+      <c r="D110" s="19"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="28">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(110,'LICENÇA POR ACIDENTE EM SERVIÇO'),</v>
+      </c>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="28">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(111,'LICENÇA POR MOTIVO DE AFASTAMENTO DO CÔNJUGE OU COMPANHEIRO'),</v>
+      </c>
+      <c r="D112" s="19"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="28">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(112,'LICENÇA POR MOTIVO DE DOENÇA EM PESSOA DA FAMÍLIA'),</v>
+      </c>
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="28">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(113,'LICENÇA PRÊMIO POR ASSIDUIDADE'),</v>
+      </c>
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="28">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(114,'MODELO 1'),</v>
+      </c>
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="28">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(115,'PENSÃO ESPECIAL'),</v>
+      </c>
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="28">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(116,'PLANSERV'),</v>
+      </c>
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="28">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(117,'PRÊMIO DE DESEMPENHO FAZENDÁRIO'),</v>
+      </c>
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="28">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(118,'PRÊMIO ESPECIAL'),</v>
+      </c>
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="28">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(119,'PRÊMIO POR DESEMPENHO POLICIAL - PDP'),</v>
+      </c>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="28">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(120,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="28">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(121,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="28">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(122,'PROCESSO SELETIVO SIMPLIFICADO - REDA'),</v>
+      </c>
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="28">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(123,'PROGRESSÃO CARREIRA'),</v>
+      </c>
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="28">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(124,'PROMOÇÃO NA CARREIRA DA POLÍCIA MILITAR E DO CORPO DE BOMBEIROS MILITAR'),</v>
+      </c>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="28">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(125,'PROMOÇÃO NA CARREIRA POLICIAL CIVIL'),</v>
+      </c>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="28">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C127" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(126,'PROMOÇÃO NAS CARREIRA DOS DEMAIS SERVIDORES PÚBLICOS CIVIS'),</v>
+      </c>
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="28">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(127,'READAPTAÇÃO FUNCIONAL'),</v>
+      </c>
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="28">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C129" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(128,'RECONDUÇÃO'),</v>
+      </c>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="28">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(129,'REINTEGRAÇÃO'),</v>
+      </c>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="28">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C131" s="4" t="str">
+        <f t="shared" ref="C131:C194" si="2">CONCATENATE("(",A131,",'",B131,"'),")</f>
+        <v>(130,'RELOTAÇÃO'),</v>
+      </c>
+      <c r="D131" s="19"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="28">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(131,'REMOÇÃO'),</v>
+      </c>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="28">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(132,'SALÁRIO FAMÍLIA'),</v>
+      </c>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="28">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(133,'SUBSTITUIÇÃO DE FUNÇÃO'),</v>
+      </c>
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="28">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(134,'TEMPO DE SERVIÇO'),</v>
+      </c>
+      <c r="D135" s="20"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="32">
+        <v>135</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(135,'ABONO DE PERMANÊNCIA'),</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="32">
+        <v>136</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(136,'APOSENTADORIA COMPULSÓRIA'),</v>
+      </c>
+      <c r="D137" s="37"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="32">
+        <v>137</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(137,'APOSENTADORIA ESPECIAL'),</v>
+      </c>
+      <c r="D138" s="37"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="32">
+        <v>138</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(138,'APOSENTADORIA POR INVALIDEZ'),</v>
+      </c>
+      <c r="D139" s="37"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="32">
+        <v>139</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(139,'APOSENTADORIA VOLUNTÁRIA'),</v>
+      </c>
+      <c r="D140" s="37"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="32">
+        <v>140</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(140,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D141" s="37"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="32">
+        <v>141</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(141,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D142" s="37"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="32">
+        <v>142</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C143" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(142,'CONTENCIOSO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D143" s="37"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="32">
+        <v>143</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(143,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D144" s="37"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="32">
+        <v>144</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(144,'PENSÃO POR MORTE'),</v>
+      </c>
+      <c r="D145" s="37"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="32">
+        <v>145</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(145,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D146" s="37"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="32">
+        <v>146</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C147" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(146,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D147" s="37"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="32">
+        <v>147</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(147,'REFORMA'),</v>
+      </c>
+      <c r="D148" s="37"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="32">
+        <v>148</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(148,'REPARAÇÃO DE DANOS'),</v>
+      </c>
+      <c r="D149" s="37"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="32">
+        <v>149</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(149,'RESERVA REMUNERADA'),</v>
+      </c>
+      <c r="D150" s="38"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="28">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C151" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(150,'APOSENTADORIA'),</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="28">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(151,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D152" s="34"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="28">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(152,'AUDITORIA DE CONTAS'),</v>
+      </c>
+      <c r="D153" s="34"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="28">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(153,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D154" s="34"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="28">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(154,'CONSULTA PROVENIENTE DO TCE'),</v>
+      </c>
+      <c r="D155" s="34"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="28">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C156" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(155,'CONTRATO DE ADMISSÃO DE PESSOAL - REDA'),</v>
+      </c>
+      <c r="D156" s="34"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="28">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(156,'CONTRATOS'),</v>
+      </c>
+      <c r="D157" s="34"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="28">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C158" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(157,'DENÚNCIA PROVENIENTE DO TCE'),</v>
+      </c>
+      <c r="D158" s="34"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="28">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C159" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(158,'EMBARGOS DE DECLARAÇÃO'),</v>
+      </c>
+      <c r="D159" s="34"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="28">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C160" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(159,'INSPEÇÃO'),</v>
+      </c>
+      <c r="D160" s="34"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="28">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C161" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(160,'LICITAÇÕES'),</v>
+      </c>
+      <c r="D161" s="34"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="28">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C162" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(161,'MEDIDA CAUTELAR'),</v>
+      </c>
+      <c r="D162" s="34"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="28">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C163" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(162,'PARCERIAS'),</v>
+      </c>
+      <c r="D163" s="34"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="28">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(163,'PENSÃO POR MORTE'),</v>
+      </c>
+      <c r="D164" s="34"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="28">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(164,'PRESTAÇÃO DE CONTAS'),</v>
+      </c>
+      <c r="D165" s="34"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="28">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(165,'RECLAMAÇÃO CONTRA ATO DE AUTORIDADE ADMINISTRATIVA'),</v>
+      </c>
+      <c r="D166" s="34"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="28">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C167" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(166,'RECURSO DE APELAÇÃO'),</v>
+      </c>
+      <c r="D167" s="34"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="28">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C168" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(167,'RECURSO DE RESCISÃO DO JULGADO'),</v>
+      </c>
+      <c r="D168" s="34"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="28">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C169" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(168,'RECURSO DE REVISÃO'),</v>
+      </c>
+      <c r="D169" s="34"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="28">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C170" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(169,'REPARAÇÃO DE DANOS'),</v>
+      </c>
+      <c r="D170" s="34"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="28">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(170,'REPRESENTAÇÃO PROVENIENTE DO MP-CONTAS'),</v>
+      </c>
+      <c r="D171" s="34"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="28">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C172" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(171,'RESERVA/REFORMA'),</v>
+      </c>
+      <c r="D172" s="34"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="28">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(172,'TOMADA DE CONTAS'),</v>
+      </c>
+      <c r="D173" s="35"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="32">
+        <v>173</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C174" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(173,'ALTERAÇÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="32">
+        <v>174</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(174,'ALTERAÇÃO DE PRAZO CONTRATUAL'),</v>
+      </c>
+      <c r="D175" s="22"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="32">
+        <v>175</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C176" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(175,'ALTERAÇÃO QUALITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D176" s="22"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="32">
+        <v>176</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C177" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(176,'ALTERAÇÃO QUANTITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D177" s="22"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="32">
+        <v>177</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C178" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(177,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D178" s="22"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="32">
+        <v>178</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C179" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(178,'BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D179" s="22"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="32">
+        <v>179</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C180" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(179,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D180" s="22"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="32">
+        <v>180</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C181" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(180,'CONCORRÊNCIA'),</v>
+      </c>
+      <c r="D181" s="22"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="32">
+        <v>181</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C182" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(181,'CONCURSO'),</v>
+      </c>
+      <c r="D182" s="22"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="32">
+        <v>182</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C183" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(182,'CONVITE'),</v>
+      </c>
+      <c r="D183" s="22"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="32">
+        <v>183</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C184" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(183,'CREDENCIAMENTO'),</v>
+      </c>
+      <c r="D184" s="22"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="32">
+        <v>184</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C185" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(184,'DISPENSA DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D185" s="22"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="32">
+        <v>185</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C186" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(185,'EMPRÉSTIMO INTERNACIONAL'),</v>
+      </c>
+      <c r="D186" s="22"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="32">
+        <v>186</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C187" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(186,'INEXIGIBILIDADE DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D187" s="22"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="32">
+        <v>187</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(187,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D188" s="22"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="32">
+        <v>188</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C189" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(188,'LICITAÇÃO'),</v>
+      </c>
+      <c r="D189" s="22"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="32">
+        <v>189</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C190" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(189,'PREGÃO ELETRÔNICO'),</v>
+      </c>
+      <c r="D190" s="22"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="32">
+        <v>190</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C191" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(190,'PREGÃO PRESENCIAL'),</v>
+      </c>
+      <c r="D191" s="22"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="32">
+        <v>191</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(191,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D192" s="22"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="32">
+        <v>192</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C193" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(192,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D193" s="22"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="32">
+        <v>193</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C194" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(193,'REGISTRO DE PREÇOS'),</v>
+      </c>
+      <c r="D194" s="22"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="32">
+        <v>194</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C195" s="13" t="str">
+        <f t="shared" ref="C195:C258" si="3">CONCATENATE("(",A195,",'",B195,"'),")</f>
+        <v>(194,'RESCISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D195" s="22"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="32">
+        <v>195</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C196" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(195,'RESSARCIMENTO'),</v>
+      </c>
+      <c r="D196" s="22"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="32">
+        <v>196</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C197" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(196,'REVISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D197" s="22"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="32">
+        <v>197</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C198" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(197,'TOMADA DE PREÇOS'),</v>
+      </c>
+      <c r="D198" s="22"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="32">
+        <v>198</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C199" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(198,'USO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D199" s="23"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="28">
+        <v>199</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C200" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(199,'ACORDO DE COOPERAÇÃO'),</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="28">
+        <v>200</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C201" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(200,'ALTERAÇÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D201" s="19"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="28">
+        <v>201</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C202" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(201,'ALTERAÇÃO DE PRAZO CONTRATUAL'),</v>
+      </c>
+      <c r="D202" s="19"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="28">
+        <v>202</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C203" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(202,'ALTERAÇÃO QUALITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D203" s="19"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="28">
+        <v>203</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C204" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(203,'ALTERAÇÃO QUANTITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D204" s="19"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="28">
+        <v>204</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C205" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(204,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D205" s="19"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="28">
+        <v>205</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C206" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(205,'BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D206" s="19"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="28">
+        <v>206</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C207" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(206,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D207" s="19"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="28">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C208" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(207,'CONCORRÊNCIA'),</v>
+      </c>
+      <c r="D208" s="19"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="28">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C209" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(208,'CONCURSO'),</v>
+      </c>
+      <c r="D209" s="19"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="28">
+        <v>209</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C210" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(209,'CONTRATO DE GESTÃO'),</v>
+      </c>
+      <c r="D210" s="19"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="28">
+        <v>210</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C211" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(210,'CONVÊNIO'),</v>
+      </c>
+      <c r="D211" s="19"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="28">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C212" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(211,'CONVITE'),</v>
+      </c>
+      <c r="D212" s="19"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="28">
+        <v>212</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C213" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(212,'CREDENCIAMENTO'),</v>
+      </c>
+      <c r="D213" s="19"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="28">
+        <v>213</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C214" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(213,'DISPENSA DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D214" s="19"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="28">
+        <v>214</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C215" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(214,'EMPRÉSTIMO INTERNACIONAL'),</v>
+      </c>
+      <c r="D215" s="19"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="28">
+        <v>215</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C216" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(215,'INEXIGIBILIDADE DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D216" s="19"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="28">
+        <v>216</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C217" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(216,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D217" s="19"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="28">
+        <v>217</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C218" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(217,'LICITAÇÃO'),</v>
+      </c>
+      <c r="D218" s="19"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="28">
+        <v>218</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(218,'PARCERIAS'),</v>
+      </c>
+      <c r="D219" s="19"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="28">
+        <v>219</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C220" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(219,'PREGÃO ELETRÔNICO'),</v>
+      </c>
+      <c r="D220" s="19"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="28">
+        <v>220</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C221" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(220,'PREGÃO PRESENCIAL'),</v>
+      </c>
+      <c r="D221" s="19"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="28">
+        <v>221</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C222" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(221,'PRESTAÇÃO DE CONTAS'),</v>
+      </c>
+      <c r="D222" s="19"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="28">
+        <v>222</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C223" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(222,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D223" s="19"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="28">
+        <v>223</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C224" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(223,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D224" s="19"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="28">
+        <v>224</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C225" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(224,'REAJUSTE CONTRATUAL'),</v>
+      </c>
+      <c r="D225" s="19"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="28">
+        <v>225</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C226" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(225,'REGISTRO DE PREÇOS'),</v>
+      </c>
+      <c r="D226" s="19"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="28">
+        <v>226</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(226,'RESCISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D227" s="19"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="28">
+        <v>227</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C228" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(227,'RESSARCIMENTO'),</v>
+      </c>
+      <c r="D228" s="19"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="28">
+        <v>228</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C229" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(228,'REVISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D229" s="19"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="28">
+        <v>229</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C230" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(229,'TERMO DE ACORDO E COMPROMISSO'),</v>
+      </c>
+      <c r="D230" s="19"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="28">
+        <v>230</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C231" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(230,'TERMO DE COLABORAÇÃO'),</v>
+      </c>
+      <c r="D231" s="19"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="28">
+        <v>231</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C232" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(231,'TERMO DE COOPERAÇÃO TÉCNICA'),</v>
+      </c>
+      <c r="D232" s="19"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="28">
+        <v>232</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C233" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(232,'TERMO DE COOPERAÇÃO TÉCNICA E FINANCEIRA'),</v>
+      </c>
+      <c r="D233" s="19"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="28">
+        <v>233</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C234" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(233,'TERMO DE FOMENTO'),</v>
+      </c>
+      <c r="D234" s="19"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="28">
+        <v>234</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C235" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(234,'TOMADA DE PREÇOS'),</v>
+      </c>
+      <c r="D235" s="19"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="28">
+        <v>235</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C236" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(235,'USO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D236" s="20"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="32">
+        <v>236</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(236,'ACORDO DE COOPERAÇÃO'),</v>
+      </c>
+      <c r="D237" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="32">
+        <v>237</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C238" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(237,'ALTERAÇÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D238" s="22"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="32">
+        <v>238</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C239" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(238,'ALTERAÇÃO DE PRAZO CONTRATUAL'),</v>
+      </c>
+      <c r="D239" s="22"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="32">
+        <v>239</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C240" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(239,'ALTERAÇÃO QUALITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D240" s="22"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="32">
+        <v>240</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C241" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(240,'ALTERAÇÃO QUANTITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D241" s="22"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="32">
+        <v>241</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C242" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(241,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D242" s="22"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="32">
+        <v>242</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C243" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(242,'BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D243" s="22"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="32">
+        <v>243</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C244" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(243,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D244" s="22"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="32">
+        <v>244</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C245" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(244,'CONCORRÊNCIA'),</v>
+      </c>
+      <c r="D245" s="22"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="32">
+        <v>245</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(245,'CONCURSO'),</v>
+      </c>
+      <c r="D246" s="22"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="32">
+        <v>246</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C247" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(246,'CONTRATO DE GESTÃO'),</v>
+      </c>
+      <c r="D247" s="22"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="32">
+        <v>247</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C248" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(247,'CONVÊNIO'),</v>
+      </c>
+      <c r="D248" s="22"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="32">
+        <v>248</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C249" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(248,'CONVITE'),</v>
+      </c>
+      <c r="D249" s="22"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="32">
+        <v>249</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C250" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(249,'CREDENCIAMENTO'),</v>
+      </c>
+      <c r="D250" s="22"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="32">
+        <v>250</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C251" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(250,'DISPENSA DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D251" s="22"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="32">
+        <v>251</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C252" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(251,'EMPRÉSTIMO INTERNACIONAL'),</v>
+      </c>
+      <c r="D252" s="22"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="32">
+        <v>252</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C253" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(252,'INEXIGIBILIDADE DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D253" s="22"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="32">
+        <v>253</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C254" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(253,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D254" s="22"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="32">
+        <v>254</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C255" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(254,'LICITAÇÃO'),</v>
+      </c>
+      <c r="D255" s="22"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="32">
+        <v>255</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C256" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(255,'PARCERIAS'),</v>
+      </c>
+      <c r="D256" s="22"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="32">
+        <v>256</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C257" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(256,'PREGÃO ELETRÔNICO'),</v>
+      </c>
+      <c r="D257" s="22"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="32">
+        <v>257</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C258" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>(257,'PREGÃO PRESENCIAL'),</v>
+      </c>
+      <c r="D258" s="22"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="32">
+        <v>258</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C259" s="13" t="str">
+        <f t="shared" ref="C259:C322" si="4">CONCATENATE("(",A259,",'",B259,"'),")</f>
+        <v>(258,'PRESTAÇÃO DE CONTAS'),</v>
+      </c>
+      <c r="D259" s="22"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="32">
+        <v>259</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(259,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D260" s="22"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="32">
+        <v>260</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C261" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(260,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D261" s="22"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="32">
+        <v>261</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C262" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(261,'REAJUSTE CONTRATUAL'),</v>
+      </c>
+      <c r="D262" s="22"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="32">
+        <v>262</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C263" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(262,'REGISTRO DE PREÇOS'),</v>
+      </c>
+      <c r="D263" s="22"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="32">
+        <v>263</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C264" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(263,'RESCISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D264" s="22"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="32">
+        <v>264</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C265" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(264,'RESSARCIMENTO'),</v>
+      </c>
+      <c r="D265" s="22"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="32">
+        <v>265</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C266" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(265,'REVISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D266" s="22"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="32">
+        <v>266</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(266,'TERMO DE ACORDO E COMPROMISSO'),</v>
+      </c>
+      <c r="D267" s="22"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="32">
+        <v>267</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C268" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(267,'TERMO DE COLABORAÇÃO'),</v>
+      </c>
+      <c r="D268" s="22"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="32">
+        <v>268</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C269" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(268,'TERMO DE COOPERAÇÃO TÉCNICA'),</v>
+      </c>
+      <c r="D269" s="22"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="32">
+        <v>269</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C270" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(269,'TERMO DE COOPERAÇÃO TÉCNICA E FINANCEIRA'),</v>
+      </c>
+      <c r="D270" s="22"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="32">
+        <v>270</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C271" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(270,'TERMO DE FOMENTO'),</v>
+      </c>
+      <c r="D271" s="22"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="32">
+        <v>271</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C272" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(271,'TOMADA DE PREÇOS'),</v>
+      </c>
+      <c r="D272" s="22"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="32">
+        <v>272</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C273" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(272,'USO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D273" s="23"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="28">
+        <v>273</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C274" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(273,'ACORDO DE COOPERAÇÃO'),</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="28">
+        <v>274</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C275" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(274,'ALTERAÇÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D275" s="19"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="28">
+        <v>275</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C276" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(275,'ALTERAÇÃO DE PRAZO CONTRATUAL'),</v>
+      </c>
+      <c r="D276" s="19"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="28">
+        <v>276</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C277" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(276,'ALTERAÇÃO QUALITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D277" s="19"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="28">
+        <v>277</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C278" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(277,'ALTERAÇÃO QUANTITATIVA DE CONTRATO'),</v>
+      </c>
+      <c r="D278" s="19"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="28">
+        <v>278</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C279" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(278,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D279" s="19"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="28">
+        <v>279</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C280" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(279,'BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D280" s="19"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="28">
+        <v>280</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C281" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(280,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D281" s="19"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="28">
+        <v>281</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C282" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(281,'CONCORRÊNCIA'),</v>
+      </c>
+      <c r="D282" s="19"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="28">
+        <v>282</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C283" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(282,'CONCURSO'),</v>
+      </c>
+      <c r="D283" s="19"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="28">
+        <v>283</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C284" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(283,'CONVÊNIO'),</v>
+      </c>
+      <c r="D284" s="19"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="28">
+        <v>284</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C285" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(284,'CONVITE'),</v>
+      </c>
+      <c r="D285" s="19"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="28">
+        <v>285</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C286" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(285,'CREDENCIAMENTO'),</v>
+      </c>
+      <c r="D286" s="19"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="28">
+        <v>286</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C287" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(286,'DISPENSA DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D287" s="19"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="28">
+        <v>287</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C288" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(287,'EMPRÉSTIMO INTERNACIONAL'),</v>
+      </c>
+      <c r="D288" s="19"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="28">
+        <v>288</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C289" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(288,'INEXIGIBILIDADE DE LICITAÇÃO'),</v>
+      </c>
+      <c r="D289" s="19"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="28">
+        <v>289</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C290" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(289,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D290" s="19"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="28">
+        <v>290</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C291" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(290,'LICITAÇÃO'),</v>
+      </c>
+      <c r="D291" s="19"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="28">
+        <v>291</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C292" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(291,'PARCERIAS'),</v>
+      </c>
+      <c r="D292" s="19"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="28">
+        <v>292</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C293" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(292,'PREGÃO ELETRÔNICO'),</v>
+      </c>
+      <c r="D293" s="19"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="28">
+        <v>293</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C294" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(293,'PREGÃO PRESENCIAL'),</v>
+      </c>
+      <c r="D294" s="19"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="28">
+        <v>294</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C295" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(294,'PRESTAÇÃO DE CONTAS'),</v>
+      </c>
+      <c r="D295" s="19"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="28">
+        <v>295</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C296" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(295,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D296" s="19"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="28">
+        <v>296</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C297" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(296,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D297" s="19"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="28">
+        <v>297</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C298" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(297,'QUALIFICAÇÃO DE ENTIDADE'),</v>
+      </c>
+      <c r="D298" s="19"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="28">
+        <v>298</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C299" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(298,'REAJUSTE CONTRATUAL'),</v>
+      </c>
+      <c r="D299" s="19"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="28">
+        <v>299</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C300" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(299,'REGISTRO DE PREÇOS'),</v>
+      </c>
+      <c r="D300" s="19"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="28">
+        <v>300</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C301" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(300,'RESCISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D301" s="19"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="28">
+        <v>301</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C302" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(301,'RESSARCIMENTO'),</v>
+      </c>
+      <c r="D302" s="19"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="28">
+        <v>302</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C303" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(302,'REVISÃO CONTRATUAL'),</v>
+      </c>
+      <c r="D303" s="19"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="28">
+        <v>303</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C304" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(303,'TERMO DE ACORDO E COMPROMISSO'),</v>
+      </c>
+      <c r="D304" s="19"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="28">
+        <v>304</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C305" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(304,'TERMO DE COLABORAÇÃO'),</v>
+      </c>
+      <c r="D305" s="19"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="28">
+        <v>305</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C306" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(305,'TERMO DE COOPERAÇÃO TÉCNICA'),</v>
+      </c>
+      <c r="D306" s="19"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="28">
+        <v>306</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C307" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(306,'TERMO DE COOPERAÇÃO TÉCNICA E FINANCEIRA'),</v>
+      </c>
+      <c r="D307" s="19"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="28">
+        <v>307</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C308" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(307,'TERMO DE FOMENTO'),</v>
+      </c>
+      <c r="D308" s="19"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="28">
+        <v>308</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C309" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(308,'TOMADA DE PREÇOS'),</v>
+      </c>
+      <c r="D309" s="19"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="28">
+        <v>309</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C310" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>(309,'USO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D310" s="20"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="32">
+        <v>310</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C311" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(310,'ATO NORMATIVO/DOCUMENTO'),</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="32">
+        <v>311</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C312" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(311,'BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D312" s="22"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="32">
+        <v>312</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C313" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(312,'BEM DE TERCEIROS - IMÓVEL'),</v>
+      </c>
+      <c r="D313" s="22"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="32">
+        <v>313</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C314" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(313,'BEM DE TERCEIROS - MÓVEL'),</v>
+      </c>
+      <c r="D314" s="22"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="32">
+        <v>314</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C315" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(314,'BEM PÚBLICO - IMÓVEL'),</v>
+      </c>
+      <c r="D315" s="22"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="32">
+        <v>315</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C316" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(315,'BEM PÚBLICO - MÓVEL'),</v>
+      </c>
+      <c r="D316" s="22"/>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="32">
+        <v>316</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C317" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(316,'COMPENSAÇÃO AMBIENTAL'),</v>
+      </c>
+      <c r="D317" s="22"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="32">
+        <v>317</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C318" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(317,'COMUNICADOS E INFORMES'),</v>
+      </c>
+      <c r="D318" s="22"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="32">
+        <v>318</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C319" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(318,'CONTENCIOSO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D319" s="22"/>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="32">
+        <v>319</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C320" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(319,'INQUÉRITO CIVIL PÚBLICO'),</v>
+      </c>
+      <c r="D320" s="22"/>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="32">
+        <v>320</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C321" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(320,'LICENCIAMENTO AMBIENTAL'),</v>
+      </c>
+      <c r="D321" s="22"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="32">
+        <v>321</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C322" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>(321,'ORÇAMENTO'),</v>
+      </c>
+      <c r="D322" s="22"/>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="32">
+        <v>322</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C323" s="13" t="str">
+        <f t="shared" ref="C323:C326" si="5">CONCATENATE("(",A323,",'",B323,"'),")</f>
+        <v>(322,'PROCEDIMENTO ADMINISTRATIVO'),</v>
+      </c>
+      <c r="D323" s="22"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="32">
+        <v>323</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C324" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>(323,'PROCEDIMENTO PRELIMINAR'),</v>
+      </c>
+      <c r="D324" s="22"/>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="32">
+        <v>324</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C325" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>(324,'TERRAS DEVOLUTAS ESTADUAIS'),</v>
+      </c>
+      <c r="D325" s="22"/>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="32">
+        <v>325</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C326" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>(325,'USO DE BEM DE TERCEIROS'),</v>
+      </c>
+      <c r="D326" s="23"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A276">
+    <sortCondition ref="A1:A276"/>
+  </sortState>
+  <mergeCells count="10">
+    <mergeCell ref="D200:D236"/>
+    <mergeCell ref="D237:D273"/>
+    <mergeCell ref="D274:D310"/>
+    <mergeCell ref="D311:D326"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="D20:D36"/>
+    <mergeCell ref="D37:D135"/>
+    <mergeCell ref="D136:D150"/>
+    <mergeCell ref="D151:D173"/>
+    <mergeCell ref="D174:D199"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="25" customWidth="1"/>
+    <col min="2" max="3" width="100.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="27" t="str">
+        <f>CONCATENATE("(",A2,",'",B2,"'),")</f>
+        <v>(,''),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="25" customWidth="1"/>
+    <col min="2" max="3" width="100.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="27" t="str">
+        <f>CONCATENATE("(",A2,",'",B2,"'),")</f>
+        <v>(,''),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2160,16 +7227,4 @@
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>